--- a/100412 MakeMatics SVM/FoursquareData.xlsx
+++ b/100412 MakeMatics SVM/FoursquareData.xlsx
@@ -1603,8 +1603,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1667,7 +1673,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1682,6 +1688,9 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1696,6 +1705,9 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2028,8 +2040,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M252"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I249"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2116,8 +2128,8 @@
         <v>Friday</v>
       </c>
       <c r="I2" s="10">
-        <f>WEEKDAY(F2,3)</f>
-        <v>4</v>
+        <f>WEEKDAY(F2,1)-1</f>
+        <v>5</v>
       </c>
       <c r="J2" s="6">
         <f t="shared" ref="J2:J65" si="3">E2</f>
@@ -2163,8 +2175,8 @@
         <v>Friday</v>
       </c>
       <c r="I3" s="10">
-        <f t="shared" ref="I3:I68" si="5">WEEKDAY(F3,3)</f>
-        <v>4</v>
+        <f t="shared" ref="I3:I66" si="5">WEEKDAY(F3,1)-1</f>
+        <v>5</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" si="3"/>
@@ -2211,7 +2223,7 @@
       </c>
       <c r="I4" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
@@ -2258,7 +2270,7 @@
       </c>
       <c r="I5" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="I6" s="10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="3"/>
@@ -2352,7 +2364,7 @@
       </c>
       <c r="I7" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
@@ -2399,7 +2411,7 @@
       </c>
       <c r="I8" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
@@ -2446,7 +2458,7 @@
       </c>
       <c r="I9" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="3"/>
@@ -2493,7 +2505,7 @@
       </c>
       <c r="I10" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="3"/>
@@ -2540,7 +2552,7 @@
       </c>
       <c r="I11" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
@@ -2587,7 +2599,7 @@
       </c>
       <c r="I12" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
@@ -2634,7 +2646,7 @@
       </c>
       <c r="I13" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
@@ -2681,7 +2693,7 @@
       </c>
       <c r="I14" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
@@ -2728,7 +2740,7 @@
       </c>
       <c r="I15" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="I16" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
@@ -2822,7 +2834,7 @@
       </c>
       <c r="I17" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
@@ -2869,7 +2881,7 @@
       </c>
       <c r="I18" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
@@ -2916,7 +2928,7 @@
       </c>
       <c r="I19" s="10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
@@ -2963,7 +2975,7 @@
       </c>
       <c r="I20" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
@@ -3010,7 +3022,7 @@
       </c>
       <c r="I21" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
@@ -3057,7 +3069,7 @@
       </c>
       <c r="I22" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
@@ -3104,7 +3116,7 @@
       </c>
       <c r="I23" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
@@ -3151,7 +3163,7 @@
       </c>
       <c r="I24" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
@@ -3198,7 +3210,7 @@
       </c>
       <c r="I25" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
@@ -3245,7 +3257,7 @@
       </c>
       <c r="I26" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
@@ -3292,7 +3304,7 @@
       </c>
       <c r="I27" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="3"/>
@@ -3339,7 +3351,7 @@
       </c>
       <c r="I28" s="10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="3"/>
@@ -3386,7 +3398,7 @@
       </c>
       <c r="I29" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="3"/>
@@ -3433,7 +3445,7 @@
       </c>
       <c r="I30" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="3"/>
@@ -3480,7 +3492,7 @@
       </c>
       <c r="I31" s="10">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" si="3"/>
@@ -3527,7 +3539,7 @@
       </c>
       <c r="I32" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="3"/>
@@ -3574,7 +3586,7 @@
       </c>
       <c r="I33" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="3"/>
@@ -3621,7 +3633,7 @@
       </c>
       <c r="I34" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="3"/>
@@ -3668,7 +3680,7 @@
       </c>
       <c r="I35" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="3"/>
@@ -3715,7 +3727,7 @@
       </c>
       <c r="I36" s="10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="3"/>
@@ -3762,7 +3774,7 @@
       </c>
       <c r="I37" s="10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="3"/>
@@ -3809,7 +3821,7 @@
       </c>
       <c r="I38" s="10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="3"/>
@@ -3856,7 +3868,7 @@
       </c>
       <c r="I39" s="10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="3"/>
@@ -3903,7 +3915,7 @@
       </c>
       <c r="I40" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" si="3"/>
@@ -3950,7 +3962,7 @@
       </c>
       <c r="I41" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="3"/>
@@ -3997,7 +4009,7 @@
       </c>
       <c r="I42" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="3"/>
@@ -4044,7 +4056,7 @@
       </c>
       <c r="I43" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="3"/>
@@ -4091,7 +4103,7 @@
       </c>
       <c r="I44" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="3"/>
@@ -4138,7 +4150,7 @@
       </c>
       <c r="I45" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="3"/>
@@ -4185,7 +4197,7 @@
       </c>
       <c r="I46" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="3"/>
@@ -4232,7 +4244,7 @@
       </c>
       <c r="I47" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J47" s="6">
         <f t="shared" si="3"/>
@@ -4279,7 +4291,7 @@
       </c>
       <c r="I48" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="3"/>
@@ -4326,7 +4338,7 @@
       </c>
       <c r="I49" s="10">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" si="3"/>
@@ -4371,7 +4383,10 @@
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="I50" s="4"/>
+      <c r="I50" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="J50" s="6">
         <f t="shared" si="3"/>
         <v>41153.994687500002</v>
@@ -4415,7 +4430,10 @@
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="I51" s="4"/>
+      <c r="I51" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="J51" s="6">
         <f t="shared" si="3"/>
         <v>41153.867905092593</v>
@@ -4461,7 +4479,7 @@
       </c>
       <c r="I52" s="10">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="3"/>
@@ -4506,7 +4524,10 @@
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="I53" s="4"/>
+      <c r="I53" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="J53" s="6">
         <f t="shared" si="3"/>
         <v>41152.807962962965</v>
@@ -4550,7 +4571,10 @@
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="I54" s="4"/>
+      <c r="I54" s="10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="J54" s="6">
         <f t="shared" si="3"/>
         <v>41151.793356481481</v>
@@ -4594,7 +4618,10 @@
         <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
-      <c r="I55" s="4"/>
+      <c r="I55" s="10">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="J55" s="6">
         <f t="shared" si="3"/>
         <v>41150.58079861111</v>
@@ -4638,7 +4665,10 @@
         <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
       <c r="J56" s="6">
         <f t="shared" si="3"/>
         <v>41149.785324074073</v>
@@ -4682,7 +4712,10 @@
         <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="J57" s="6">
         <f t="shared" si="3"/>
         <v>41147.511157407411</v>
@@ -4726,7 +4759,10 @@
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="I58" s="4"/>
+      <c r="I58" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="J58" s="6">
         <f t="shared" si="3"/>
         <v>41146.477673611109</v>
@@ -4770,7 +4806,10 @@
         <f t="shared" si="2"/>
         <v>Thursday</v>
       </c>
-      <c r="I59" s="4"/>
+      <c r="I59" s="10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="J59" s="6">
         <f t="shared" si="3"/>
         <v>41144.579212962963</v>
@@ -4814,7 +4853,10 @@
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="I60" s="4"/>
+      <c r="I60" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="J60" s="6">
         <f t="shared" si="3"/>
         <v>41139.933611111112</v>
@@ -4858,7 +4900,10 @@
         <f t="shared" si="2"/>
         <v>Saturday</v>
       </c>
-      <c r="I61" s="4"/>
+      <c r="I61" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="J61" s="6">
         <f t="shared" si="3"/>
         <v>41139.463807870372</v>
@@ -4902,7 +4947,10 @@
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="I62" s="4"/>
+      <c r="I62" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="J62" s="6">
         <f t="shared" si="3"/>
         <v>41138.95857638889</v>
@@ -4946,7 +4994,10 @@
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="I63" s="4"/>
+      <c r="I63" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="J63" s="6">
         <f t="shared" si="3"/>
         <v>41138.848877314813</v>
@@ -4992,7 +5043,7 @@
       </c>
       <c r="I64" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" si="3"/>
@@ -5037,7 +5088,10 @@
         <f t="shared" si="2"/>
         <v>Friday</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="J65" s="6">
         <f t="shared" si="3"/>
         <v>41138.848402777774</v>
@@ -5081,7 +5135,10 @@
         <f t="shared" ref="H66:H129" si="8">TEXT(E66,"dddd")</f>
         <v>Friday</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="J66" s="6">
         <f t="shared" ref="J66:J129" si="9">E66</f>
         <v>41138.265115740738</v>
@@ -5125,7 +5182,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I67" s="4"/>
+      <c r="I67" s="10">
+        <f t="shared" ref="I67:I130" si="11">WEEKDAY(F67,1)-1</f>
+        <v>4</v>
+      </c>
       <c r="J67" s="6">
         <f t="shared" si="9"/>
         <v>41137.636643518519</v>
@@ -5170,8 +5230,8 @@
         <v>Thursday</v>
       </c>
       <c r="I68" s="10">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" si="9"/>
@@ -5216,7 +5276,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I69" s="4"/>
+      <c r="I69" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J69" s="6">
         <f t="shared" si="9"/>
         <v>41137.443749999999</v>
@@ -5260,7 +5323,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J70" s="6">
         <f t="shared" si="9"/>
         <v>41137.443310185183</v>
@@ -5304,7 +5370,10 @@
         <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
-      <c r="I71" s="4"/>
+      <c r="I71" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J71" s="6">
         <f t="shared" si="9"/>
         <v>41136.815949074073</v>
@@ -5349,8 +5418,8 @@
         <v>Wednesday</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" ref="I72:I73" si="11">WEEKDAY(F72,3)</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="J72" s="6">
         <f t="shared" si="9"/>
@@ -5397,7 +5466,7 @@
       </c>
       <c r="I73" s="10">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" si="9"/>
@@ -5442,7 +5511,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I74" s="4"/>
+      <c r="I74" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J74" s="6">
         <f t="shared" si="9"/>
         <v>41135.58666666667</v>
@@ -5487,8 +5559,8 @@
         <v>Monday</v>
       </c>
       <c r="I75" s="10">
-        <f t="shared" ref="I75" si="12">WEEKDAY(F75,3)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" si="9"/>
@@ -5533,7 +5605,10 @@
         <f t="shared" si="8"/>
         <v>Monday</v>
       </c>
-      <c r="I76" s="4"/>
+      <c r="I76" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="J76" s="6">
         <f t="shared" si="9"/>
         <v>41134.606030092589</v>
@@ -5577,7 +5652,10 @@
         <f t="shared" si="8"/>
         <v>Sunday</v>
       </c>
-      <c r="I77" s="4"/>
+      <c r="I77" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="J77" s="6">
         <f t="shared" si="9"/>
         <v>41133.562546296293</v>
@@ -5621,7 +5699,10 @@
         <f t="shared" si="8"/>
         <v>Sunday</v>
       </c>
-      <c r="I78" s="4"/>
+      <c r="I78" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="J78" s="6">
         <f t="shared" si="9"/>
         <v>41133.561597222222</v>
@@ -5666,8 +5747,8 @@
         <v>Saturday</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" ref="I79" si="13">WEEKDAY(F79,3)</f>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>6</v>
       </c>
       <c r="J79" s="6">
         <f t="shared" si="9"/>
@@ -5712,7 +5793,10 @@
         <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
-      <c r="I80" s="4"/>
+      <c r="I80" s="10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="J80" s="6">
         <f t="shared" si="9"/>
         <v>41131.63894675926</v>
@@ -5757,8 +5841,8 @@
         <v>Friday</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" ref="I81" si="14">WEEKDAY(F81,3)</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J81" s="6">
         <f t="shared" si="9"/>
@@ -5803,7 +5887,10 @@
         <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
-      <c r="I82" s="4"/>
+      <c r="I82" s="10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="J82" s="6">
         <f t="shared" si="9"/>
         <v>41131.638622685183</v>
@@ -5847,7 +5934,10 @@
         <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
-      <c r="I83" s="4"/>
+      <c r="I83" s="10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="J83" s="6">
         <f t="shared" si="9"/>
         <v>41131.638449074075</v>
@@ -5892,8 +5982,8 @@
         <v>Thursday</v>
       </c>
       <c r="I84" s="10">
-        <f t="shared" ref="I84" si="15">WEEKDAY(F84,3)</f>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="9"/>
@@ -5938,7 +6028,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I85" s="4"/>
+      <c r="I85" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J85" s="6">
         <f t="shared" si="9"/>
         <v>41130.448506944442</v>
@@ -5982,7 +6075,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I86" s="4"/>
+      <c r="I86" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J86" s="6">
         <f t="shared" si="9"/>
         <v>41130.101064814815</v>
@@ -6027,8 +6123,8 @@
         <v>Thursday</v>
       </c>
       <c r="I87" s="10">
-        <f t="shared" ref="I87" si="16">WEEKDAY(F87,3)</f>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J87" s="6">
         <f t="shared" si="9"/>
@@ -6073,7 +6169,10 @@
         <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
-      <c r="I88" s="4"/>
+      <c r="I88" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J88" s="6">
         <f t="shared" si="9"/>
         <v>41129.368622685186</v>
@@ -6117,7 +6216,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I89" s="4"/>
+      <c r="I89" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J89" s="6">
         <f t="shared" si="9"/>
         <v>41128.617407407408</v>
@@ -6162,8 +6264,8 @@
         <v>Tuesday</v>
       </c>
       <c r="I90" s="10">
-        <f t="shared" ref="I90" si="17">WEEKDAY(F90,3)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" si="9"/>
@@ -6208,7 +6310,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I91" s="4"/>
+      <c r="I91" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J91" s="6">
         <f t="shared" si="9"/>
         <v>41128.616701388892</v>
@@ -6252,7 +6357,10 @@
         <f t="shared" si="8"/>
         <v>Monday</v>
       </c>
-      <c r="I92" s="4"/>
+      <c r="I92" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="J92" s="6">
         <f t="shared" si="9"/>
         <v>41127.999537037038</v>
@@ -6297,8 +6405,8 @@
         <v>Friday</v>
       </c>
       <c r="I93" s="10">
-        <f t="shared" ref="I93:I94" si="18">WEEKDAY(F93,3)</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="9"/>
@@ -6344,8 +6452,8 @@
         <v>Friday</v>
       </c>
       <c r="I94" s="10">
-        <f t="shared" si="18"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="9"/>
@@ -6390,7 +6498,10 @@
         <f t="shared" si="8"/>
         <v>Friday</v>
       </c>
-      <c r="I95" s="4"/>
+      <c r="I95" s="10">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
       <c r="J95" s="6">
         <f t="shared" si="9"/>
         <v>41124.370000000003</v>
@@ -6434,7 +6545,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I96" s="4"/>
+      <c r="I96" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J96" s="6">
         <f t="shared" si="9"/>
         <v>41123.931446759263</v>
@@ -6478,7 +6592,10 @@
         <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
-      <c r="I97" s="4"/>
+      <c r="I97" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J97" s="6">
         <f t="shared" si="9"/>
         <v>41122.814502314817</v>
@@ -6523,8 +6640,8 @@
         <v>Wednesday</v>
       </c>
       <c r="I98" s="10">
-        <f t="shared" ref="I98" si="19">WEEKDAY(F98,3)</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="9"/>
@@ -6569,7 +6686,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I99" s="4"/>
+      <c r="I99" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J99" s="6">
         <f t="shared" si="9"/>
         <v>41121.847384259258</v>
@@ -6614,8 +6734,8 @@
         <v>Tuesday</v>
       </c>
       <c r="I100" s="10">
-        <f t="shared" ref="I100" si="20">WEEKDAY(F100,3)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" si="9"/>
@@ -6660,7 +6780,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I101" s="4"/>
+      <c r="I101" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J101" s="6">
         <f t="shared" si="9"/>
         <v>41121.847060185188</v>
@@ -6705,8 +6828,8 @@
         <v>Tuesday</v>
       </c>
       <c r="I102" s="10">
-        <f t="shared" ref="I102:I103" si="21">WEEKDAY(F102,3)</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="J102" s="6">
         <f t="shared" si="9"/>
@@ -6752,8 +6875,8 @@
         <v>Monday</v>
       </c>
       <c r="I103" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="J103" s="6">
         <f t="shared" si="9"/>
@@ -6798,7 +6921,10 @@
         <f t="shared" si="8"/>
         <v>Monday</v>
       </c>
-      <c r="I104" s="4"/>
+      <c r="I104" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="J104" s="6">
         <f t="shared" si="9"/>
         <v>41120.436631944445</v>
@@ -6842,7 +6968,10 @@
         <f t="shared" si="8"/>
         <v>Saturday</v>
       </c>
-      <c r="I105" s="4"/>
+      <c r="I105" s="10">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
       <c r="J105" s="6">
         <f t="shared" si="9"/>
         <v>41118.90152777778</v>
@@ -6886,7 +7015,10 @@
         <f t="shared" si="8"/>
         <v>Saturday</v>
       </c>
-      <c r="I106" s="4"/>
+      <c r="I106" s="10">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
       <c r="J106" s="6">
         <f t="shared" si="9"/>
         <v>41118.608622685184</v>
@@ -6931,8 +7063,8 @@
         <v>Friday</v>
       </c>
       <c r="I107" s="10">
-        <f t="shared" ref="I107:I109" si="22">WEEKDAY(F107,3)</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J107" s="6">
         <f t="shared" si="9"/>
@@ -6978,8 +7110,8 @@
         <v>Thursday</v>
       </c>
       <c r="I108" s="10">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J108" s="6">
         <f t="shared" si="9"/>
@@ -7025,8 +7157,8 @@
         <v>Thursday</v>
       </c>
       <c r="I109" s="10">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J109" s="6">
         <f t="shared" si="9"/>
@@ -7071,7 +7203,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I110" s="4"/>
+      <c r="I110" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J110" s="6">
         <f t="shared" si="9"/>
         <v>41116.441550925927</v>
@@ -7115,7 +7250,10 @@
         <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
-      <c r="I111" s="4"/>
+      <c r="I111" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J111" s="6">
         <f t="shared" si="9"/>
         <v>41115.771840277775</v>
@@ -7159,7 +7297,10 @@
         <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
-      <c r="I112" s="4"/>
+      <c r="I112" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J112" s="6">
         <f t="shared" si="9"/>
         <v>41115.599606481483</v>
@@ -7203,7 +7344,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I113" s="4"/>
+      <c r="I113" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J113" s="6">
         <f t="shared" si="9"/>
         <v>41114.780115740738</v>
@@ -7247,7 +7391,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I114" s="4"/>
+      <c r="I114" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J114" s="6">
         <f t="shared" si="9"/>
         <v>41114.777743055558</v>
@@ -7291,7 +7438,10 @@
         <f t="shared" si="8"/>
         <v>Tuesday</v>
       </c>
-      <c r="I115" s="4"/>
+      <c r="I115" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="J115" s="6">
         <f t="shared" si="9"/>
         <v>41114.347858796296</v>
@@ -7335,7 +7485,10 @@
         <f t="shared" si="8"/>
         <v>Monday</v>
       </c>
-      <c r="I116" s="4"/>
+      <c r="I116" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
       <c r="J116" s="6">
         <f t="shared" si="9"/>
         <v>41113.9925462963</v>
@@ -7379,7 +7532,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I117" s="4"/>
+      <c r="I117" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J117" s="6">
         <f t="shared" si="9"/>
         <v>41109.558229166665</v>
@@ -7423,7 +7579,10 @@
         <f t="shared" si="8"/>
         <v>Sunday</v>
       </c>
-      <c r="I118" s="4"/>
+      <c r="I118" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="J118" s="6">
         <f t="shared" si="9"/>
         <v>41105.939328703702</v>
@@ -7467,7 +7626,10 @@
         <f t="shared" si="8"/>
         <v>Sunday</v>
       </c>
-      <c r="I119" s="4"/>
+      <c r="I119" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="J119" s="6">
         <f t="shared" si="9"/>
         <v>41105.793252314819</v>
@@ -7511,7 +7673,10 @@
         <f t="shared" si="8"/>
         <v>Sunday</v>
       </c>
-      <c r="I120" s="4"/>
+      <c r="I120" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="J120" s="6">
         <f t="shared" si="9"/>
         <v>41105.425567129627</v>
@@ -7555,7 +7720,10 @@
         <f t="shared" si="8"/>
         <v>Sunday</v>
       </c>
-      <c r="I121" s="4"/>
+      <c r="I121" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="J121" s="6">
         <f t="shared" si="9"/>
         <v>41105.425381944442</v>
@@ -7599,7 +7767,10 @@
         <f t="shared" si="8"/>
         <v>Saturday</v>
       </c>
-      <c r="I122" s="4"/>
+      <c r="I122" s="10">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
       <c r="J122" s="6">
         <f t="shared" si="9"/>
         <v>41104.693287037036</v>
@@ -7644,8 +7815,8 @@
         <v>Friday</v>
       </c>
       <c r="I123" s="10">
-        <f t="shared" ref="I123" si="23">WEEKDAY(F123,3)</f>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J123" s="6">
         <f t="shared" si="9"/>
@@ -7690,7 +7861,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I124" s="4"/>
+      <c r="I124" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J124" s="6">
         <f t="shared" si="9"/>
         <v>41102.887615740743</v>
@@ -7735,8 +7909,8 @@
         <v>Thursday</v>
       </c>
       <c r="I125" s="10">
-        <f t="shared" ref="I125" si="24">WEEKDAY(F125,3)</f>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="J125" s="6">
         <f t="shared" si="9"/>
@@ -7781,7 +7955,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I126" s="4"/>
+      <c r="I126" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J126" s="6">
         <f t="shared" si="9"/>
         <v>41102.6253587963</v>
@@ -7825,7 +8002,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I127" s="4"/>
+      <c r="I127" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J127" s="6">
         <f t="shared" si="9"/>
         <v>41102.432453703703</v>
@@ -7869,7 +8049,10 @@
         <f t="shared" si="8"/>
         <v>Thursday</v>
       </c>
-      <c r="I128" s="4"/>
+      <c r="I128" s="10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="J128" s="6">
         <f t="shared" si="9"/>
         <v>41102.432118055556</v>
@@ -7913,7 +8096,10 @@
         <f t="shared" si="8"/>
         <v>Wednesday</v>
       </c>
-      <c r="I129" s="4"/>
+      <c r="I129" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J129" s="6">
         <f t="shared" si="9"/>
         <v>41101.886458333334</v>
@@ -7943,23 +8129,26 @@
         <v>1342051042</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" ref="E130:E193" si="25">(((D130-(4*3600))/86400)+25569)</f>
+        <f t="shared" ref="E130:E193" si="12">(((D130-(4*3600))/86400)+25569)</f>
         <v>41101.831504629634</v>
       </c>
       <c r="F130" s="4">
-        <f t="shared" ref="F130:F193" si="26">E130</f>
+        <f t="shared" ref="F130:F193" si="13">E130</f>
         <v>41101.831504629634</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>433</v>
       </c>
       <c r="H130" s="4" t="str">
-        <f t="shared" ref="H130:H193" si="27">TEXT(E130,"dddd")</f>
+        <f t="shared" ref="H130:H193" si="14">TEXT(E130,"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="I130" s="4"/>
+      <c r="I130" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
       <c r="J130" s="6">
-        <f t="shared" ref="J130:J193" si="28">E130</f>
+        <f t="shared" ref="J130:J193" si="15">E130</f>
         <v>41101.831504629634</v>
       </c>
       <c r="K130" s="1" t="s">
@@ -7974,7 +8163,7 @@
     </row>
     <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="1">
-        <f t="shared" ref="A131:A194" si="29">A130+1</f>
+        <f t="shared" ref="A131:A194" si="16">A130+1</f>
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -7987,23 +8176,26 @@
         <v>1342048159</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41101.798136574071</v>
       </c>
       <c r="F131" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41101.798136574071</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>433</v>
       </c>
       <c r="H131" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
-      <c r="I131" s="4"/>
+      <c r="I131" s="10">
+        <f t="shared" ref="I131:I194" si="17">WEEKDAY(F131,1)-1</f>
+        <v>3</v>
+      </c>
       <c r="J131" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41101.798136574071</v>
       </c>
       <c r="K131" s="1" t="s">
@@ -8018,7 +8210,7 @@
     </row>
     <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -8031,23 +8223,26 @@
         <v>1342048062</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41101.797013888892</v>
       </c>
       <c r="F132" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41101.797013888892</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>433</v>
       </c>
       <c r="H132" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
-      <c r="I132" s="4"/>
+      <c r="I132" s="10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="J132" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41101.797013888892</v>
       </c>
       <c r="K132" s="1" t="s">
@@ -8062,7 +8257,7 @@
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -8075,26 +8270,26 @@
         <v>1342016899</v>
       </c>
       <c r="E133" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41101.436331018514</v>
       </c>
       <c r="F133" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41101.436331018514</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>433</v>
       </c>
       <c r="H133" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
       <c r="I133" s="10">
-        <f t="shared" ref="I133" si="30">WEEKDAY(F133,3)</f>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="J133" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41101.436331018514</v>
       </c>
       <c r="K133" s="1" t="s">
@@ -8109,7 +8304,7 @@
     </row>
     <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -8122,23 +8317,26 @@
         <v>1341973168</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41100.930185185185</v>
       </c>
       <c r="F134" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41100.930185185185</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>434</v>
       </c>
       <c r="H134" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
-      <c r="I134" s="4"/>
+      <c r="I134" s="10">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="J134" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41100.930185185185</v>
       </c>
       <c r="K134" s="1" t="s">
@@ -8153,7 +8351,7 @@
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -8166,26 +8364,26 @@
         <v>1341931486</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41100.447754629626</v>
       </c>
       <c r="F135" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41100.447754629626</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>434</v>
       </c>
       <c r="H135" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
       <c r="I135" s="10">
-        <f t="shared" ref="I135:I140" si="31">WEEKDAY(F135,3)</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="J135" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41100.447754629626</v>
       </c>
       <c r="K135" s="1" t="s">
@@ -8200,7 +8398,7 @@
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -8213,26 +8411,26 @@
         <v>1341876015</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41099.805729166663</v>
       </c>
       <c r="F136" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41099.805729166663</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>435</v>
       </c>
       <c r="H136" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
       <c r="I136" s="10">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="J136" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41099.805729166663</v>
       </c>
       <c r="K136" s="1" t="s">
@@ -8247,7 +8445,7 @@
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -8260,26 +8458,26 @@
         <v>1341859868</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41099.618842592594</v>
       </c>
       <c r="F137" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41099.618842592594</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>435</v>
       </c>
       <c r="H137" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="J137" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41099.618842592594</v>
       </c>
       <c r="K137" s="1" t="s">
@@ -8294,7 +8492,7 @@
     </row>
     <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -8307,23 +8505,26 @@
         <v>1341770439</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41098.583784722221</v>
       </c>
       <c r="F138" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41098.583784722221</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>436</v>
       </c>
       <c r="H138" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I138" s="4"/>
+      <c r="I138" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J138" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41098.583784722221</v>
       </c>
       <c r="K138" s="1" t="s">
@@ -8338,7 +8539,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -8351,26 +8552,26 @@
         <v>1341607293</v>
       </c>
       <c r="E139" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41096.695520833331</v>
       </c>
       <c r="F139" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41096.695520833331</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>437</v>
       </c>
       <c r="H139" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Friday</v>
       </c>
       <c r="I139" s="10">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="J139" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41096.695520833331</v>
       </c>
       <c r="K139" s="1" t="s">
@@ -8385,7 +8586,7 @@
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -8398,26 +8599,26 @@
         <v>1341498373</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41095.434872685189</v>
       </c>
       <c r="F140" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41095.434872685189</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>438</v>
       </c>
       <c r="H140" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
       <c r="I140" s="10">
-        <f t="shared" si="31"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="J140" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41095.434872685189</v>
       </c>
       <c r="K140" s="1" t="s">
@@ -8432,7 +8633,7 @@
     </row>
     <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -8445,23 +8646,26 @@
         <v>1341436662</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41094.720625000002</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41094.720625000002</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>439</v>
       </c>
       <c r="H141" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
-      <c r="I141" s="4"/>
+      <c r="I141" s="10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="J141" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41094.720625000002</v>
       </c>
       <c r="K141" s="1" t="s">
@@ -8476,7 +8680,7 @@
     </row>
     <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -8489,23 +8693,26 @@
         <v>1341417255</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41094.496006944442</v>
       </c>
       <c r="F142" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41094.496006944442</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>439</v>
       </c>
       <c r="H142" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
-      <c r="I142" s="4"/>
+      <c r="I142" s="10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="J142" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41094.496006944442</v>
       </c>
       <c r="K142" s="1" t="s">
@@ -8520,7 +8727,7 @@
     </row>
     <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -8533,23 +8740,26 @@
         <v>1341336735</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41093.564062500001</v>
       </c>
       <c r="F143" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41093.564062500001</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>440</v>
       </c>
       <c r="H143" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
-      <c r="I143" s="4"/>
+      <c r="I143" s="10">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="J143" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41093.564062500001</v>
       </c>
       <c r="K143" s="1" t="s">
@@ -8564,7 +8774,7 @@
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -8577,26 +8787,26 @@
         <v>1341326314</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41093.443449074075</v>
       </c>
       <c r="F144" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41093.443449074075</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>440</v>
       </c>
       <c r="H144" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
       <c r="I144" s="10">
-        <f t="shared" ref="I144" si="32">WEEKDAY(F144,3)</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="J144" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41093.443449074075</v>
       </c>
       <c r="K144" s="1" t="s">
@@ -8611,7 +8821,7 @@
     </row>
     <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -8624,23 +8834,26 @@
         <v>1341276656</v>
       </c>
       <c r="E145" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41092.868703703702</v>
       </c>
       <c r="F145" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41092.868703703702</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>441</v>
       </c>
       <c r="H145" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I145" s="4"/>
+      <c r="I145" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J145" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41092.868703703702</v>
       </c>
       <c r="K145" s="1" t="s">
@@ -8655,7 +8868,7 @@
     </row>
     <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -8668,23 +8881,26 @@
         <v>1341258717</v>
       </c>
       <c r="E146" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41092.661076388889</v>
       </c>
       <c r="F146" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41092.661076388889</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>441</v>
       </c>
       <c r="H146" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I146" s="4"/>
+      <c r="I146" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J146" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41092.661076388889</v>
       </c>
       <c r="K146" s="1" t="s">
@@ -8699,7 +8915,7 @@
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -8712,26 +8928,26 @@
         <v>1341239601</v>
       </c>
       <c r="E147" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41092.439826388887</v>
       </c>
       <c r="F147" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41092.439826388887</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>441</v>
       </c>
       <c r="H147" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
       <c r="I147" s="10">
-        <f t="shared" ref="I147" si="33">WEEKDAY(F147,3)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="J147" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41092.439826388887</v>
       </c>
       <c r="K147" s="1" t="s">
@@ -8746,7 +8962,7 @@
     </row>
     <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -8759,23 +8975,26 @@
         <v>1341239575</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41092.439525462964</v>
       </c>
       <c r="F148" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41092.439525462964</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>441</v>
       </c>
       <c r="H148" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I148" s="4"/>
+      <c r="I148" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J148" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41092.439525462964</v>
       </c>
       <c r="K148" s="1" t="s">
@@ -8790,7 +9009,7 @@
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -8803,26 +9022,26 @@
         <v>1341179492</v>
       </c>
       <c r="E149" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41091.744120370371</v>
       </c>
       <c r="F149" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41091.744120370371</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>442</v>
       </c>
       <c r="H149" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
       <c r="I149" s="10">
-        <f t="shared" ref="I149" si="34">WEEKDAY(F149,3)</f>
-        <v>6</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="J149" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41091.744120370371</v>
       </c>
       <c r="K149" s="1" t="s">
@@ -8837,7 +9056,7 @@
     </row>
     <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -8850,23 +9069,26 @@
         <v>1341179471</v>
       </c>
       <c r="E150" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41091.743877314817</v>
       </c>
       <c r="F150" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41091.743877314817</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>442</v>
       </c>
       <c r="H150" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I150" s="4"/>
+      <c r="I150" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J150" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41091.743877314817</v>
       </c>
       <c r="K150" s="1" t="s">
@@ -8881,7 +9103,7 @@
     </row>
     <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -8894,23 +9116,26 @@
         <v>1341167592</v>
       </c>
       <c r="E151" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41091.606388888889</v>
       </c>
       <c r="F151" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41091.606388888889</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>442</v>
       </c>
       <c r="H151" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I151" s="4"/>
+      <c r="I151" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J151" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41091.606388888889</v>
       </c>
       <c r="K151" s="1" t="s">
@@ -8925,7 +9150,7 @@
     </row>
     <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -8938,23 +9163,26 @@
         <v>1341161231</v>
       </c>
       <c r="E152" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41091.532766203702</v>
       </c>
       <c r="F152" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41091.532766203702</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>442</v>
       </c>
       <c r="H152" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I152" s="4"/>
+      <c r="I152" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J152" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41091.532766203702</v>
       </c>
       <c r="K152" s="1" t="s">
@@ -8969,7 +9197,7 @@
     </row>
     <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -8982,23 +9210,26 @@
         <v>1341153396</v>
       </c>
       <c r="E153" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41091.442083333335</v>
       </c>
       <c r="F153" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41091.442083333335</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>442</v>
       </c>
       <c r="H153" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I153" s="4"/>
+      <c r="I153" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J153" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41091.442083333335</v>
       </c>
       <c r="K153" s="1" t="s">
@@ -9013,7 +9244,7 @@
     </row>
     <row r="154" spans="1:13" hidden="1">
       <c r="A154" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -9026,23 +9257,26 @@
         <v>1341119837</v>
       </c>
       <c r="E154" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41091.053668981483</v>
       </c>
       <c r="F154" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41091.053668981483</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>442</v>
       </c>
       <c r="H154" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I154" s="4"/>
+      <c r="I154" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J154" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41091.053668981483</v>
       </c>
       <c r="K154" s="1" t="s">
@@ -9057,7 +9291,7 @@
     </row>
     <row r="155" spans="1:13" hidden="1">
       <c r="A155" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -9070,23 +9304,26 @@
         <v>1341080440</v>
       </c>
       <c r="E155" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41090.597685185188</v>
       </c>
       <c r="F155" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41090.597685185188</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>443</v>
       </c>
       <c r="H155" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Saturday</v>
       </c>
-      <c r="I155" s="4"/>
+      <c r="I155" s="10">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="J155" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41090.597685185188</v>
       </c>
       <c r="K155" s="1" t="s">
@@ -9101,7 +9338,7 @@
     </row>
     <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -9114,23 +9351,26 @@
         <v>1341079158</v>
       </c>
       <c r="E156" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41090.58284722222</v>
       </c>
       <c r="F156" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41090.58284722222</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>443</v>
       </c>
       <c r="H156" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Saturday</v>
       </c>
-      <c r="I156" s="4"/>
+      <c r="I156" s="10">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="J156" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41090.58284722222</v>
       </c>
       <c r="K156" s="1" t="s">
@@ -9145,7 +9385,7 @@
     </row>
     <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -9158,23 +9398,26 @@
         <v>1341076710</v>
       </c>
       <c r="E157" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41090.554513888885</v>
       </c>
       <c r="F157" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41090.554513888885</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>443</v>
       </c>
       <c r="H157" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Saturday</v>
       </c>
-      <c r="I157" s="4"/>
+      <c r="I157" s="10">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="J157" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41090.554513888885</v>
       </c>
       <c r="K157" s="1" t="s">
@@ -9189,7 +9432,7 @@
     </row>
     <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -9202,23 +9445,26 @@
         <v>1341020429</v>
       </c>
       <c r="E158" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41089.903113425928</v>
       </c>
       <c r="F158" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41089.903113425928</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>444</v>
       </c>
       <c r="H158" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Friday</v>
       </c>
-      <c r="I158" s="4"/>
+      <c r="I158" s="10">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
       <c r="J158" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41089.903113425928</v>
       </c>
       <c r="K158" s="1" t="s">
@@ -9233,7 +9479,7 @@
     </row>
     <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -9246,23 +9492,26 @@
         <v>1341016367</v>
       </c>
       <c r="E159" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41089.856099537035</v>
       </c>
       <c r="F159" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41089.856099537035</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>444</v>
       </c>
       <c r="H159" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Friday</v>
       </c>
-      <c r="I159" s="4"/>
+      <c r="I159" s="10">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
       <c r="J159" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41089.856099537035</v>
       </c>
       <c r="K159" s="1" t="s">
@@ -9277,7 +9526,7 @@
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -9290,26 +9539,26 @@
         <v>1341016329</v>
       </c>
       <c r="E160" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41089.85565972222</v>
       </c>
       <c r="F160" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41089.85565972222</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>444</v>
       </c>
       <c r="H160" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Friday</v>
       </c>
       <c r="I160" s="10">
-        <f t="shared" ref="I160" si="35">WEEKDAY(F160,3)</f>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="J160" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41089.85565972222</v>
       </c>
       <c r="K160" s="1" t="s">
@@ -9324,7 +9573,7 @@
     </row>
     <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -9337,23 +9586,26 @@
         <v>1340937370</v>
       </c>
       <c r="E161" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41088.941782407404</v>
       </c>
       <c r="F161" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41088.941782407404</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>445</v>
       </c>
       <c r="H161" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
-      <c r="I161" s="4"/>
+      <c r="I161" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J161" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41088.941782407404</v>
       </c>
       <c r="K161" s="1" t="s">
@@ -9368,7 +9620,7 @@
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -9381,26 +9633,26 @@
         <v>1340895381</v>
       </c>
       <c r="E162" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41088.45579861111</v>
       </c>
       <c r="F162" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41088.45579861111</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>445</v>
       </c>
       <c r="H162" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
       <c r="I162" s="10">
-        <f t="shared" ref="I162" si="36">WEEKDAY(F162,3)</f>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="J162" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41088.45579861111</v>
       </c>
       <c r="K162" s="1" t="s">
@@ -9415,7 +9667,7 @@
     </row>
     <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -9428,23 +9680,26 @@
         <v>1340895365</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41088.455613425926</v>
       </c>
       <c r="F163" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41088.455613425926</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>445</v>
       </c>
       <c r="H163" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
-      <c r="I163" s="4"/>
+      <c r="I163" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J163" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41088.455613425926</v>
       </c>
       <c r="K163" s="1" t="s">
@@ -9459,7 +9714,7 @@
     </row>
     <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -9472,23 +9727,26 @@
         <v>1340878296</v>
       </c>
       <c r="E164" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41088.258055555554</v>
       </c>
       <c r="F164" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41088.258055555554</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>445</v>
       </c>
       <c r="H164" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
-      <c r="I164" s="4"/>
+      <c r="I164" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J164" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41088.258055555554</v>
       </c>
       <c r="K164" s="1" t="s">
@@ -9503,7 +9761,7 @@
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -9516,26 +9774,26 @@
         <v>1340842149</v>
       </c>
       <c r="E165" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41087.839687500003</v>
       </c>
       <c r="F165" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41087.839687500003</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>446</v>
       </c>
       <c r="H165" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
       <c r="I165" s="10">
-        <f t="shared" ref="I165:I166" si="37">WEEKDAY(F165,3)</f>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="J165" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41087.839687500003</v>
       </c>
       <c r="K165" s="1" t="s">
@@ -9550,7 +9808,7 @@
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -9563,26 +9821,26 @@
         <v>1340842113</v>
       </c>
       <c r="E166" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41087.839270833334</v>
       </c>
       <c r="F166" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41087.839270833334</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>446</v>
       </c>
       <c r="H166" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
       <c r="I166" s="10">
-        <f t="shared" si="37"/>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="J166" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41087.839270833334</v>
       </c>
       <c r="K166" s="1" t="s">
@@ -9597,7 +9855,7 @@
     </row>
     <row r="167" spans="1:13" hidden="1">
       <c r="A167" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -9610,23 +9868,26 @@
         <v>1340760207</v>
       </c>
       <c r="E167" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41086.891284722224</v>
       </c>
       <c r="F167" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41086.891284722224</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>447</v>
       </c>
       <c r="H167" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
-      <c r="I167" s="4"/>
+      <c r="I167" s="10">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="J167" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41086.891284722224</v>
       </c>
       <c r="K167" s="1" t="s">
@@ -9641,7 +9902,7 @@
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -9654,26 +9915,26 @@
         <v>1340717720</v>
       </c>
       <c r="E168" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41086.399537037039</v>
       </c>
       <c r="F168" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41086.399537037039</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>447</v>
       </c>
       <c r="H168" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
       <c r="I168" s="10">
-        <f t="shared" ref="I168" si="38">WEEKDAY(F168,3)</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="J168" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41086.399537037039</v>
       </c>
       <c r="K168" s="1" t="s">
@@ -9688,7 +9949,7 @@
     </row>
     <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -9701,23 +9962,26 @@
         <v>1340674528</v>
       </c>
       <c r="E169" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41085.899629629632</v>
       </c>
       <c r="F169" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41085.899629629632</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>448</v>
       </c>
       <c r="H169" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I169" s="4"/>
+      <c r="I169" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J169" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41085.899629629632</v>
       </c>
       <c r="K169" s="1" t="s">
@@ -9732,7 +9996,7 @@
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -9745,26 +10009,26 @@
         <v>1340673458</v>
       </c>
       <c r="E170" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41085.887245370366</v>
       </c>
       <c r="F170" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41085.887245370366</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>448</v>
       </c>
       <c r="H170" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
       <c r="I170" s="10">
-        <f t="shared" ref="I170" si="39">WEEKDAY(F170,3)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="J170" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41085.887245370366</v>
       </c>
       <c r="K170" s="1" t="s">
@@ -9779,7 +10043,7 @@
     </row>
     <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -9792,23 +10056,26 @@
         <v>1340647483</v>
       </c>
       <c r="E171" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41085.586608796293</v>
       </c>
       <c r="F171" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41085.586608796293</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>448</v>
       </c>
       <c r="H171" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I171" s="4"/>
+      <c r="I171" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J171" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41085.586608796293</v>
       </c>
       <c r="K171" s="1" t="s">
@@ -9823,7 +10090,7 @@
     </row>
     <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -9836,23 +10103,26 @@
         <v>1340574997</v>
       </c>
       <c r="E172" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41084.747650462959</v>
       </c>
       <c r="F172" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41084.747650462959</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>449</v>
       </c>
       <c r="H172" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I172" s="4"/>
+      <c r="I172" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J172" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41084.747650462959</v>
       </c>
       <c r="K172" s="1" t="s">
@@ -9867,7 +10137,7 @@
     </row>
     <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -9880,23 +10150,26 @@
         <v>1340573282</v>
       </c>
       <c r="E173" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41084.727800925924</v>
       </c>
       <c r="F173" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41084.727800925924</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>449</v>
       </c>
       <c r="H173" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I173" s="4"/>
+      <c r="I173" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J173" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41084.727800925924</v>
       </c>
       <c r="K173" s="1" t="s">
@@ -9911,7 +10184,7 @@
     </row>
     <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -9924,23 +10197,26 @@
         <v>1340573242</v>
       </c>
       <c r="E174" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41084.727337962962</v>
       </c>
       <c r="F174" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41084.727337962962</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>449</v>
       </c>
       <c r="H174" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I174" s="4"/>
+      <c r="I174" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J174" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41084.727337962962</v>
       </c>
       <c r="K174" s="1" t="s">
@@ -9955,7 +10231,7 @@
     </row>
     <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -9968,23 +10244,26 @@
         <v>1340573222</v>
       </c>
       <c r="E175" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41084.727106481485</v>
       </c>
       <c r="F175" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41084.727106481485</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>449</v>
       </c>
       <c r="H175" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Sunday</v>
       </c>
-      <c r="I175" s="4"/>
+      <c r="I175" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
       <c r="J175" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41084.727106481485</v>
       </c>
       <c r="K175" s="1" t="s">
@@ -9999,7 +10278,7 @@
     </row>
     <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -10012,23 +10291,26 @@
         <v>1340479697</v>
       </c>
       <c r="E176" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41083.644641203704</v>
       </c>
       <c r="F176" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41083.644641203704</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>450</v>
       </c>
       <c r="H176" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Saturday</v>
       </c>
-      <c r="I176" s="4"/>
+      <c r="I176" s="10">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="J176" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41083.644641203704</v>
       </c>
       <c r="K176" s="1" t="s">
@@ -10043,7 +10325,7 @@
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -10056,26 +10338,26 @@
         <v>1340478790</v>
       </c>
       <c r="E177" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41083.634143518517</v>
       </c>
       <c r="F177" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41083.634143518517</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>450</v>
       </c>
       <c r="H177" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Saturday</v>
       </c>
       <c r="I177" s="10">
-        <f t="shared" ref="I177" si="40">WEEKDAY(F177,3)</f>
-        <v>5</v>
+        <f t="shared" si="17"/>
+        <v>6</v>
       </c>
       <c r="J177" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41083.634143518517</v>
       </c>
       <c r="K177" s="1" t="s">
@@ -10090,7 +10372,7 @@
     </row>
     <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -10103,23 +10385,26 @@
         <v>1340457677</v>
       </c>
       <c r="E178" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41083.389780092592</v>
       </c>
       <c r="F178" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41083.389780092592</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>450</v>
       </c>
       <c r="H178" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Saturday</v>
       </c>
-      <c r="I178" s="4"/>
+      <c r="I178" s="10">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
       <c r="J178" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41083.389780092592</v>
       </c>
       <c r="K178" s="1" t="s">
@@ -10134,7 +10419,7 @@
     </row>
     <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -10147,23 +10432,26 @@
         <v>1340413397</v>
       </c>
       <c r="E179" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41082.877280092594</v>
       </c>
       <c r="F179" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41082.877280092594</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>451</v>
       </c>
       <c r="H179" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Friday</v>
       </c>
-      <c r="I179" s="4"/>
+      <c r="I179" s="10">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
       <c r="J179" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41082.877280092594</v>
       </c>
       <c r="K179" s="1" t="s">
@@ -10178,7 +10466,7 @@
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -10191,26 +10479,26 @@
         <v>1340375699</v>
       </c>
       <c r="E180" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41082.440960648149</v>
       </c>
       <c r="F180" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41082.440960648149</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>451</v>
       </c>
       <c r="H180" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Friday</v>
       </c>
       <c r="I180" s="10">
-        <f t="shared" ref="I180" si="41">WEEKDAY(F180,3)</f>
-        <v>4</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="J180" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41082.440960648149</v>
       </c>
       <c r="K180" s="1" t="s">
@@ -10225,7 +10513,7 @@
     </row>
     <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -10238,23 +10526,26 @@
         <v>1340325858</v>
       </c>
       <c r="E181" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41081.86409722222</v>
       </c>
       <c r="F181" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41081.86409722222</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>452</v>
       </c>
       <c r="H181" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
-      <c r="I181" s="4"/>
+      <c r="I181" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J181" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41081.86409722222</v>
       </c>
       <c r="K181" s="1" t="s">
@@ -10269,7 +10560,7 @@
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -10282,26 +10573,26 @@
         <v>1340289743</v>
       </c>
       <c r="E182" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41081.446099537039</v>
       </c>
       <c r="F182" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41081.446099537039</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>452</v>
       </c>
       <c r="H182" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
       <c r="I182" s="10">
-        <f t="shared" ref="I182" si="42">WEEKDAY(F182,3)</f>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>4</v>
       </c>
       <c r="J182" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41081.446099537039</v>
       </c>
       <c r="K182" s="1" t="s">
@@ -10316,7 +10607,7 @@
     </row>
     <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -10329,23 +10620,26 @@
         <v>1340287727</v>
       </c>
       <c r="E183" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41081.422766203701</v>
       </c>
       <c r="F183" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41081.422766203701</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>452</v>
       </c>
       <c r="H183" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
-      <c r="I183" s="4"/>
+      <c r="I183" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J183" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41081.422766203701</v>
       </c>
       <c r="K183" s="1" t="s">
@@ -10360,7 +10654,7 @@
     </row>
     <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -10373,23 +10667,26 @@
         <v>1340287701</v>
       </c>
       <c r="E184" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41081.422465277778</v>
       </c>
       <c r="F184" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41081.422465277778</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>452</v>
       </c>
       <c r="H184" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
-      <c r="I184" s="4"/>
+      <c r="I184" s="10">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
       <c r="J184" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41081.422465277778</v>
       </c>
       <c r="K184" s="1" t="s">
@@ -10404,7 +10701,7 @@
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -10417,26 +10714,26 @@
         <v>1340226419</v>
       </c>
       <c r="E185" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41080.713182870371</v>
       </c>
       <c r="F185" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41080.713182870371</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>453</v>
       </c>
       <c r="H185" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
       <c r="I185" s="10">
-        <f t="shared" ref="I185" si="43">WEEKDAY(F185,3)</f>
-        <v>2</v>
+        <f t="shared" si="17"/>
+        <v>3</v>
       </c>
       <c r="J185" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41080.713182870371</v>
       </c>
       <c r="K185" s="1" t="s">
@@ -10451,7 +10748,7 @@
     </row>
     <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -10464,23 +10761,26 @@
         <v>1340226400</v>
       </c>
       <c r="E186" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41080.712962962964</v>
       </c>
       <c r="F186" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41080.712962962964</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>453</v>
       </c>
       <c r="H186" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
-      <c r="I186" s="4"/>
+      <c r="I186" s="10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="J186" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41080.712962962964</v>
       </c>
       <c r="K186" s="1" t="s">
@@ -10495,7 +10795,7 @@
     </row>
     <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -10508,23 +10808,26 @@
         <v>1340192003</v>
       </c>
       <c r="E187" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41080.314849537041</v>
       </c>
       <c r="F187" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41080.314849537041</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>453</v>
       </c>
       <c r="H187" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Wednesday</v>
       </c>
-      <c r="I187" s="4"/>
+      <c r="I187" s="10">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
       <c r="J187" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41080.314849537041</v>
       </c>
       <c r="K187" s="1" t="s">
@@ -10539,7 +10842,7 @@
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -10552,26 +10855,26 @@
         <v>1340160959</v>
       </c>
       <c r="E188" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41079.955543981479</v>
       </c>
       <c r="F188" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41079.955543981479</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>454</v>
       </c>
       <c r="H188" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
       <c r="I188" s="10">
-        <f t="shared" ref="I188" si="44">WEEKDAY(F188,3)</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="J188" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41079.955543981479</v>
       </c>
       <c r="K188" s="1" t="s">
@@ -10586,7 +10889,7 @@
     </row>
     <row r="189" spans="1:13" hidden="1">
       <c r="A189" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -10599,23 +10902,26 @@
         <v>1340133543</v>
       </c>
       <c r="E189" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41079.638229166667</v>
       </c>
       <c r="F189" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41079.638229166667</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>454</v>
       </c>
       <c r="H189" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
-      <c r="I189" s="4"/>
+      <c r="I189" s="10">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
       <c r="J189" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41079.638229166667</v>
       </c>
       <c r="K189" s="1" t="s">
@@ -10630,7 +10936,7 @@
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -10643,26 +10949,26 @@
         <v>1340120698</v>
       </c>
       <c r="E190" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41079.489560185189</v>
       </c>
       <c r="F190" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41079.489560185189</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>454</v>
       </c>
       <c r="H190" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Tuesday</v>
       </c>
       <c r="I190" s="10">
-        <f t="shared" ref="I190" si="45">WEEKDAY(F190,3)</f>
-        <v>1</v>
+        <f t="shared" si="17"/>
+        <v>2</v>
       </c>
       <c r="J190" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41079.489560185189</v>
       </c>
       <c r="K190" s="1" t="s">
@@ -10677,7 +10983,7 @@
     </row>
     <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -10690,23 +10996,26 @@
         <v>1340067971</v>
       </c>
       <c r="E191" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41078.879293981481</v>
       </c>
       <c r="F191" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41078.879293981481</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>455</v>
       </c>
       <c r="H191" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I191" s="4"/>
+      <c r="I191" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J191" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41078.879293981481</v>
       </c>
       <c r="K191" s="1" t="s">
@@ -10721,7 +11030,7 @@
     </row>
     <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -10734,23 +11043,26 @@
         <v>1340040333</v>
       </c>
       <c r="E192" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41078.55940972222</v>
       </c>
       <c r="F192" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41078.55940972222</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>455</v>
       </c>
       <c r="H192" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
-      <c r="I192" s="4"/>
+      <c r="I192" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J192" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41078.55940972222</v>
       </c>
       <c r="K192" s="1" t="s">
@@ -10765,7 +11077,7 @@
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -10778,26 +11090,26 @@
         <v>1340030171</v>
       </c>
       <c r="E193" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="12"/>
         <v>41078.441793981481</v>
       </c>
       <c r="F193" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="13"/>
         <v>41078.441793981481</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>455</v>
       </c>
       <c r="H193" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="14"/>
         <v>Monday</v>
       </c>
       <c r="I193" s="10">
-        <f t="shared" ref="I193" si="46">WEEKDAY(F193,3)</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>1</v>
       </c>
       <c r="J193" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="15"/>
         <v>41078.441793981481</v>
       </c>
       <c r="K193" s="1" t="s">
@@ -10812,7 +11124,7 @@
     </row>
     <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="16"/>
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -10825,23 +11137,26 @@
         <v>1339997576</v>
       </c>
       <c r="E194" s="3">
-        <f t="shared" ref="E194:E251" si="47">(((D194-(4*3600))/86400)+25569)</f>
+        <f t="shared" ref="E194:E251" si="18">(((D194-(4*3600))/86400)+25569)</f>
         <v>41078.064537037033</v>
       </c>
       <c r="F194" s="4">
-        <f t="shared" ref="F194:F251" si="48">E194</f>
+        <f t="shared" ref="F194:F251" si="19">E194</f>
         <v>41078.064537037033</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>455</v>
       </c>
       <c r="H194" s="4" t="str">
-        <f t="shared" ref="H194:H251" si="49">TEXT(E194,"dddd")</f>
+        <f t="shared" ref="H194:H251" si="20">TEXT(E194,"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="I194" s="4"/>
+      <c r="I194" s="10">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
       <c r="J194" s="6">
-        <f t="shared" ref="J194:J251" si="50">E194</f>
+        <f t="shared" ref="J194:J251" si="21">E194</f>
         <v>41078.064537037033</v>
       </c>
       <c r="K194" s="1" t="s">
@@ -10856,7 +11171,7 @@
     </row>
     <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="1">
-        <f t="shared" ref="A195:A251" si="51">A194+1</f>
+        <f t="shared" ref="A195:A251" si="22">A194+1</f>
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -10869,23 +11184,26 @@
         <v>1339940172</v>
       </c>
       <c r="E195" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41077.400138888886</v>
       </c>
       <c r="F195" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41077.400138888886</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>456</v>
       </c>
       <c r="H195" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
-      <c r="I195" s="4"/>
+      <c r="I195" s="10">
+        <f t="shared" ref="I195:I251" si="23">WEEKDAY(F195,1)-1</f>
+        <v>0</v>
+      </c>
       <c r="J195" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41077.400138888886</v>
       </c>
       <c r="K195" s="1" t="s">
@@ -10900,7 +11218,7 @@
     </row>
     <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -10913,23 +11231,26 @@
         <v>1339940158</v>
       </c>
       <c r="E196" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41077.399976851855</v>
       </c>
       <c r="F196" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41077.399976851855</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>456</v>
       </c>
       <c r="H196" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
-      <c r="I196" s="4"/>
+      <c r="I196" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="J196" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41077.399976851855</v>
       </c>
       <c r="K196" s="1" t="s">
@@ -10944,7 +11265,7 @@
     </row>
     <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -10957,23 +11278,26 @@
         <v>1339899360</v>
       </c>
       <c r="E197" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41076.927777777775</v>
       </c>
       <c r="F197" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41076.927777777775</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H197" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Saturday</v>
       </c>
-      <c r="I197" s="4"/>
+      <c r="I197" s="10">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
       <c r="J197" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41076.927777777775</v>
       </c>
       <c r="K197" s="1" t="s">
@@ -10988,7 +11312,7 @@
     </row>
     <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -11001,23 +11325,26 @@
         <v>1339872673</v>
       </c>
       <c r="E198" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41076.618900462963</v>
       </c>
       <c r="F198" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41076.618900462963</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H198" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Saturday</v>
       </c>
-      <c r="I198" s="4"/>
+      <c r="I198" s="10">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
       <c r="J198" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41076.618900462963</v>
       </c>
       <c r="K198" s="1" t="s">
@@ -11032,7 +11359,7 @@
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -11045,26 +11372,26 @@
         <v>1339866228</v>
       </c>
       <c r="E199" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41076.544305555552</v>
       </c>
       <c r="F199" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41076.544305555552</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H199" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Saturday</v>
       </c>
       <c r="I199" s="10">
-        <f t="shared" ref="I199:I200" si="52">WEEKDAY(F199,3)</f>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="J199" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41076.544305555552</v>
       </c>
       <c r="K199" s="1" t="s">
@@ -11079,7 +11406,7 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -11092,26 +11419,26 @@
         <v>1339813047</v>
       </c>
       <c r="E200" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41075.928784722222</v>
       </c>
       <c r="F200" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41075.928784722222</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>458</v>
       </c>
       <c r="H200" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
       <c r="I200" s="10">
-        <f t="shared" si="52"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="J200" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41075.928784722222</v>
       </c>
       <c r="K200" s="1" t="s">
@@ -11126,7 +11453,7 @@
     </row>
     <row r="201" spans="1:13" hidden="1">
       <c r="A201" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -11139,23 +11466,26 @@
         <v>1339813031</v>
       </c>
       <c r="E201" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41075.928599537037</v>
       </c>
       <c r="F201" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41075.928599537037</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>458</v>
       </c>
       <c r="H201" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I201" s="4"/>
+      <c r="I201" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J201" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41075.928599537037</v>
       </c>
       <c r="K201" s="1" t="s">
@@ -11170,7 +11500,7 @@
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -11183,26 +11513,26 @@
         <v>1339781574</v>
       </c>
       <c r="E202" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41075.564513888887</v>
       </c>
       <c r="F202" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41075.564513888887</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>458</v>
       </c>
       <c r="H202" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
       <c r="I202" s="10">
-        <f t="shared" ref="I202" si="53">WEEKDAY(F202,3)</f>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="J202" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41075.564513888887</v>
       </c>
       <c r="K202" s="1" t="s">
@@ -11217,7 +11547,7 @@
     </row>
     <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -11230,23 +11560,26 @@
         <v>1339770097</v>
       </c>
       <c r="E203" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41075.43167824074</v>
       </c>
       <c r="F203" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41075.43167824074</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>458</v>
       </c>
       <c r="H203" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I203" s="4"/>
+      <c r="I203" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J203" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41075.43167824074</v>
       </c>
       <c r="K203" s="1" t="s">
@@ -11261,7 +11594,7 @@
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -11274,26 +11607,26 @@
         <v>1339697818</v>
       </c>
       <c r="E204" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41074.59511574074</v>
       </c>
       <c r="F204" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41074.59511574074</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>459</v>
       </c>
       <c r="H204" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I204" s="10">
-        <f t="shared" ref="I204" si="54">WEEKDAY(F204,3)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J204" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41074.59511574074</v>
       </c>
       <c r="K204" s="1" t="s">
@@ -11308,7 +11641,7 @@
     </row>
     <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -11321,23 +11654,26 @@
         <v>1339683409</v>
       </c>
       <c r="E205" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41074.428344907406</v>
       </c>
       <c r="F205" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41074.428344907406</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>459</v>
       </c>
       <c r="H205" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
-      <c r="I205" s="4"/>
+      <c r="I205" s="10">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
       <c r="J205" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41074.428344907406</v>
       </c>
       <c r="K205" s="1" t="s">
@@ -11352,7 +11688,7 @@
     </row>
     <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -11365,23 +11701,26 @@
         <v>1339683380</v>
       </c>
       <c r="E206" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41074.42800925926</v>
       </c>
       <c r="F206" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41074.42800925926</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>459</v>
       </c>
       <c r="H206" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
-      <c r="I206" s="4"/>
+      <c r="I206" s="10">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
       <c r="J206" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41074.42800925926</v>
       </c>
       <c r="K206" s="1" t="s">
@@ -11396,7 +11735,7 @@
     </row>
     <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -11409,23 +11748,26 @@
         <v>1339611265</v>
       </c>
       <c r="E207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41073.593344907407</v>
       </c>
       <c r="F207" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41073.593344907407</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>460</v>
       </c>
       <c r="H207" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I207" s="4"/>
+      <c r="I207" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J207" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41073.593344907407</v>
       </c>
       <c r="K207" s="1" t="s">
@@ -11440,7 +11782,7 @@
     </row>
     <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -11453,23 +11795,26 @@
         <v>1339608972</v>
       </c>
       <c r="E208" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41073.566805555558</v>
       </c>
       <c r="F208" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41073.566805555558</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>460</v>
       </c>
       <c r="H208" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I208" s="4"/>
+      <c r="I208" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J208" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41073.566805555558</v>
       </c>
       <c r="K208" s="1" t="s">
@@ -11484,7 +11829,7 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -11497,26 +11842,26 @@
         <v>1339597917</v>
       </c>
       <c r="E209" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41073.43885416667</v>
       </c>
       <c r="F209" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41073.43885416667</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>460</v>
       </c>
       <c r="H209" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
       <c r="I209" s="10">
-        <f t="shared" ref="I209" si="55">WEEKDAY(F209,3)</f>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="J209" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41073.43885416667</v>
       </c>
       <c r="K209" s="1" t="s">
@@ -11531,7 +11876,7 @@
     </row>
     <row r="210" spans="1:13" hidden="1">
       <c r="A210" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -11544,23 +11889,26 @@
         <v>1339596887</v>
       </c>
       <c r="E210" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41073.426932870367</v>
       </c>
       <c r="F210" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41073.426932870367</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>460</v>
       </c>
       <c r="H210" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I210" s="4"/>
+      <c r="I210" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J210" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41073.426932870367</v>
       </c>
       <c r="K210" s="1" t="s">
@@ -11575,7 +11923,7 @@
     </row>
     <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -11588,23 +11936,26 @@
         <v>1339580985</v>
       </c>
       <c r="E211" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>41073.242881944447</v>
       </c>
       <c r="F211" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>41073.242881944447</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>460</v>
       </c>
       <c r="H211" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I211" s="4"/>
+      <c r="I211" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J211" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>41073.242881944447</v>
       </c>
       <c r="K211" s="1" t="s">
@@ -11619,7 +11970,7 @@
     </row>
     <row r="212" spans="1:13">
       <c r="A212" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>210</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -11632,26 +11983,26 @@
         <v>1331671969</v>
       </c>
       <c r="E212" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40981.703344907408</v>
       </c>
       <c r="F212" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40981.703344907408</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>461</v>
       </c>
       <c r="H212" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
       <c r="I212" s="10">
-        <f t="shared" ref="I212" si="56">WEEKDAY(F212,3)</f>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="J212" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40981.703344907408</v>
       </c>
       <c r="K212" s="1" t="s">
@@ -11666,7 +12017,7 @@
     </row>
     <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -11679,23 +12030,26 @@
         <v>1331663703</v>
       </c>
       <c r="E213" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40981.607673611114</v>
       </c>
       <c r="F213" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40981.607673611114</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>461</v>
       </c>
       <c r="H213" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
-      <c r="I213" s="4"/>
+      <c r="I213" s="10">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
       <c r="J213" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40981.607673611114</v>
       </c>
       <c r="K213" s="1" t="s">
@@ -11710,7 +12064,7 @@
     </row>
     <row r="214" spans="1:13" hidden="1">
       <c r="A214" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
@@ -11723,23 +12077,26 @@
         <v>1331663681</v>
       </c>
       <c r="E214" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40981.607418981483</v>
       </c>
       <c r="F214" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40981.607418981483</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>461</v>
       </c>
       <c r="H214" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
-      <c r="I214" s="4"/>
+      <c r="I214" s="10">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
       <c r="J214" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40981.607418981483</v>
       </c>
       <c r="K214" s="1" t="s">
@@ -11754,7 +12111,7 @@
     </row>
     <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -11767,23 +12124,26 @@
         <v>1331054604</v>
       </c>
       <c r="E215" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40974.557916666665</v>
       </c>
       <c r="F215" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40974.557916666665</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>462</v>
       </c>
       <c r="H215" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
-      <c r="I215" s="4"/>
+      <c r="I215" s="10">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
       <c r="J215" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40974.557916666665</v>
       </c>
       <c r="K215" s="1" t="s">
@@ -11798,7 +12158,7 @@
     </row>
     <row r="216" spans="1:13">
       <c r="A216" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -11811,26 +12171,26 @@
         <v>1331054574</v>
       </c>
       <c r="E216" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40974.557569444441</v>
       </c>
       <c r="F216" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40974.557569444441</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>462</v>
       </c>
       <c r="H216" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
       <c r="I216" s="10">
-        <f t="shared" ref="I216" si="57">WEEKDAY(F216,3)</f>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="J216" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40974.557569444441</v>
       </c>
       <c r="K216" s="1" t="s">
@@ -11845,7 +12205,7 @@
     </row>
     <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -11858,23 +12218,26 @@
         <v>1330960699</v>
       </c>
       <c r="E217" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40973.471053240741</v>
       </c>
       <c r="F217" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40973.471053240741</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>463</v>
       </c>
       <c r="H217" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Monday</v>
       </c>
-      <c r="I217" s="4"/>
+      <c r="I217" s="10">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
       <c r="J217" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40973.471053240741</v>
       </c>
       <c r="K217" s="1" t="s">
@@ -11889,7 +12252,7 @@
     </row>
     <row r="218" spans="1:13" hidden="1">
       <c r="A218" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -11902,23 +12265,26 @@
         <v>1330913390</v>
       </c>
       <c r="E218" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40972.923495370371</v>
       </c>
       <c r="F218" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40972.923495370371</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>464</v>
       </c>
       <c r="H218" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
-      <c r="I218" s="4"/>
+      <c r="I218" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="J218" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40972.923495370371</v>
       </c>
       <c r="K218" s="1" t="s">
@@ -11933,7 +12299,7 @@
     </row>
     <row r="219" spans="1:13">
       <c r="A219" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -11946,26 +12312,26 @@
         <v>1330913334</v>
       </c>
       <c r="E219" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40972.922847222224</v>
       </c>
       <c r="F219" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40972.922847222224</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>464</v>
       </c>
       <c r="H219" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
       <c r="I219" s="10">
-        <f t="shared" ref="I219:I221" si="58">WEEKDAY(F219,3)</f>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="J219" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40972.922847222224</v>
       </c>
       <c r="K219" s="1" t="s">
@@ -11980,7 +12346,7 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -11993,26 +12359,26 @@
         <v>1330890475</v>
       </c>
       <c r="E220" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40972.658275462964</v>
       </c>
       <c r="F220" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40972.658275462964</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>464</v>
       </c>
       <c r="H220" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
       <c r="I220" s="10">
-        <f t="shared" si="58"/>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="J220" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40972.658275462964</v>
       </c>
       <c r="K220" s="1" t="s">
@@ -12027,7 +12393,7 @@
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -12040,26 +12406,26 @@
         <v>1330735614</v>
       </c>
       <c r="E221" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40970.865902777776</v>
       </c>
       <c r="F221" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40970.865902777776</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>465</v>
       </c>
       <c r="H221" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
       <c r="I221" s="10">
-        <f t="shared" si="58"/>
-        <v>4</v>
+        <f t="shared" si="23"/>
+        <v>5</v>
       </c>
       <c r="J221" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40970.865902777776</v>
       </c>
       <c r="K221" s="1" t="s">
@@ -12074,7 +12440,7 @@
     </row>
     <row r="222" spans="1:13" hidden="1">
       <c r="A222" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -12087,23 +12453,26 @@
         <v>1330721899</v>
       </c>
       <c r="E222" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40970.70716435185</v>
       </c>
       <c r="F222" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40970.70716435185</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>465</v>
       </c>
       <c r="H222" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I222" s="4"/>
+      <c r="I222" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J222" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40970.70716435185</v>
       </c>
       <c r="K222" s="1" t="s">
@@ -12118,7 +12487,7 @@
     </row>
     <row r="223" spans="1:13" hidden="1">
       <c r="A223" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -12131,23 +12500,26 @@
         <v>1330670022</v>
       </c>
       <c r="E223" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40970.106736111113</v>
       </c>
       <c r="F223" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40970.106736111113</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>465</v>
       </c>
       <c r="H223" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I223" s="4"/>
+      <c r="I223" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J223" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40970.106736111113</v>
       </c>
       <c r="K223" s="1" t="s">
@@ -12162,7 +12534,7 @@
     </row>
     <row r="224" spans="1:13">
       <c r="A224" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -12175,26 +12547,26 @@
         <v>1330634255</v>
       </c>
       <c r="E224" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40969.692766203705</v>
       </c>
       <c r="F224" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40969.692766203705</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>466</v>
       </c>
       <c r="H224" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I224" s="10">
-        <f t="shared" ref="I224:I225" si="59">WEEKDAY(F224,3)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J224" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40969.692766203705</v>
       </c>
       <c r="K224" s="1" t="s">
@@ -12209,7 +12581,7 @@
     </row>
     <row r="225" spans="1:13">
       <c r="A225" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -12222,26 +12594,26 @@
         <v>1330612046</v>
       </c>
       <c r="E225" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40969.435717592591</v>
       </c>
       <c r="F225" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40969.435717592591</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>466</v>
       </c>
       <c r="H225" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I225" s="10">
-        <f t="shared" si="59"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J225" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40969.435717592591</v>
       </c>
       <c r="K225" s="1" t="s">
@@ -12256,7 +12628,7 @@
     </row>
     <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -12269,23 +12641,26 @@
         <v>1330568747</v>
       </c>
       <c r="E226" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40968.934571759259</v>
       </c>
       <c r="F226" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40968.934571759259</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>467</v>
       </c>
       <c r="H226" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I226" s="4"/>
+      <c r="I226" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J226" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40968.934571759259</v>
       </c>
       <c r="K226" s="1" t="s">
@@ -12300,7 +12675,7 @@
     </row>
     <row r="227" spans="1:13">
       <c r="A227" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -12313,26 +12688,26 @@
         <v>1330568717</v>
       </c>
       <c r="E227" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40968.934224537035</v>
       </c>
       <c r="F227" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40968.934224537035</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>467</v>
       </c>
       <c r="H227" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
       <c r="I227" s="10">
-        <f t="shared" ref="I227:I228" si="60">WEEKDAY(F227,3)</f>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="J227" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40968.934224537035</v>
       </c>
       <c r="K227" s="1" t="s">
@@ -12347,7 +12722,7 @@
     </row>
     <row r="228" spans="1:13">
       <c r="A228" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -12360,26 +12735,26 @@
         <v>1330450441</v>
       </c>
       <c r="E228" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40967.565289351856</v>
       </c>
       <c r="F228" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40967.565289351856</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>468</v>
       </c>
       <c r="H228" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
       <c r="I228" s="10">
-        <f t="shared" si="60"/>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="J228" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40967.565289351856</v>
       </c>
       <c r="K228" s="1" t="s">
@@ -12394,7 +12769,7 @@
     </row>
     <row r="229" spans="1:13" hidden="1">
       <c r="A229" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -12407,23 +12782,26 @@
         <v>1330449434</v>
       </c>
       <c r="E229" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40967.55363425926</v>
       </c>
       <c r="F229" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40967.55363425926</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>468</v>
       </c>
       <c r="H229" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
-      <c r="I229" s="4"/>
+      <c r="I229" s="10">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
       <c r="J229" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40967.55363425926</v>
       </c>
       <c r="K229" s="1" t="s">
@@ -12438,7 +12816,7 @@
     </row>
     <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -12451,23 +12829,26 @@
         <v>1330387728</v>
       </c>
       <c r="E230" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40966.839444444442</v>
       </c>
       <c r="F230" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40966.839444444442</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>469</v>
       </c>
       <c r="H230" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Monday</v>
       </c>
-      <c r="I230" s="4"/>
+      <c r="I230" s="10">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
       <c r="J230" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40966.839444444442</v>
       </c>
       <c r="K230" s="1" t="s">
@@ -12482,7 +12863,7 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -12495,26 +12876,26 @@
         <v>1330285012</v>
       </c>
       <c r="E231" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40965.650601851856</v>
       </c>
       <c r="F231" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40965.650601851856</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>470</v>
       </c>
       <c r="H231" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
       <c r="I231" s="10">
-        <f t="shared" ref="I231" si="61">WEEKDAY(F231,3)</f>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="J231" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40965.650601851856</v>
       </c>
       <c r="K231" s="1" t="s">
@@ -12529,7 +12910,7 @@
     </row>
     <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>230</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -12542,23 +12923,26 @@
         <v>1330234011</v>
       </c>
       <c r="E232" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40965.060312499998</v>
       </c>
       <c r="F232" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40965.060312499998</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>470</v>
       </c>
       <c r="H232" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
-      <c r="I232" s="4"/>
+      <c r="I232" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="J232" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40965.060312499998</v>
       </c>
       <c r="K232" s="1" t="s">
@@ -12573,7 +12957,7 @@
     </row>
     <row r="233" spans="1:13" hidden="1">
       <c r="A233" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -12586,23 +12970,26 @@
         <v>1330124767</v>
       </c>
       <c r="E233" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40963.795914351853</v>
       </c>
       <c r="F233" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40963.795914351853</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>471</v>
       </c>
       <c r="H233" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I233" s="4"/>
+      <c r="I233" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J233" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40963.795914351853</v>
       </c>
       <c r="K233" s="1" t="s">
@@ -12617,7 +13004,7 @@
     </row>
     <row r="234" spans="1:13" hidden="1">
       <c r="A234" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -12630,23 +13017,26 @@
         <v>1330084616</v>
       </c>
       <c r="E234" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40963.331203703703</v>
       </c>
       <c r="F234" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40963.331203703703</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>471</v>
       </c>
       <c r="H234" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I234" s="4"/>
+      <c r="I234" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J234" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40963.331203703703</v>
       </c>
       <c r="K234" s="1" t="s">
@@ -12661,7 +13051,7 @@
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -12674,26 +13064,26 @@
         <v>1330033702</v>
       </c>
       <c r="E235" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40962.7419212963</v>
       </c>
       <c r="F235" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40962.7419212963</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>472</v>
       </c>
       <c r="H235" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I235" s="10">
-        <f t="shared" ref="I235:I237" si="62">WEEKDAY(F235,3)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J235" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40962.7419212963</v>
       </c>
       <c r="K235" s="1" t="s">
@@ -12708,7 +13098,7 @@
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -12721,26 +13111,26 @@
         <v>1330023202</v>
       </c>
       <c r="E236" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40962.620393518519</v>
       </c>
       <c r="F236" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40962.620393518519</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>472</v>
       </c>
       <c r="H236" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I236" s="10">
-        <f t="shared" si="62"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J236" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40962.620393518519</v>
       </c>
       <c r="K236" s="1" t="s">
@@ -12755,7 +13145,7 @@
     </row>
     <row r="237" spans="1:13">
       <c r="A237" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -12768,26 +13158,26 @@
         <v>1329931680</v>
       </c>
       <c r="E237" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40961.561111111107</v>
       </c>
       <c r="F237" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40961.561111111107</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>473</v>
       </c>
       <c r="H237" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
       <c r="I237" s="10">
-        <f t="shared" si="62"/>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="J237" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40961.561111111107</v>
       </c>
       <c r="K237" s="1" t="s">
@@ -12802,7 +13192,7 @@
     </row>
     <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>236</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -12815,23 +13205,26 @@
         <v>1329882214</v>
       </c>
       <c r="E238" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40960.988587962966</v>
       </c>
       <c r="F238" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40960.988587962966</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>474</v>
       </c>
       <c r="H238" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
-      <c r="I238" s="4"/>
+      <c r="I238" s="10">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
       <c r="J238" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40960.988587962966</v>
       </c>
       <c r="K238" s="1" t="s">
@@ -12846,7 +13239,7 @@
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -12859,26 +13252,26 @@
         <v>1329844876</v>
       </c>
       <c r="E239" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40960.556435185186</v>
       </c>
       <c r="F239" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40960.556435185186</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>474</v>
       </c>
       <c r="H239" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Tuesday</v>
       </c>
       <c r="I239" s="10">
-        <f t="shared" ref="I239" si="63">WEEKDAY(F239,3)</f>
-        <v>1</v>
+        <f t="shared" si="23"/>
+        <v>2</v>
       </c>
       <c r="J239" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40960.556435185186</v>
       </c>
       <c r="K239" s="1" t="s">
@@ -12893,7 +13286,7 @@
     </row>
     <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>238</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -12906,23 +13299,26 @@
         <v>1329752951</v>
       </c>
       <c r="E240" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40959.492488425924</v>
       </c>
       <c r="F240" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40959.492488425924</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>475</v>
       </c>
       <c r="H240" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Monday</v>
       </c>
-      <c r="I240" s="4"/>
+      <c r="I240" s="10">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
       <c r="J240" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40959.492488425924</v>
       </c>
       <c r="K240" s="1" t="s">
@@ -12937,7 +13333,7 @@
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>239</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -12950,26 +13346,26 @@
         <v>1329664158</v>
       </c>
       <c r="E241" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40958.464791666665</v>
       </c>
       <c r="F241" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40958.464791666665</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>476</v>
       </c>
       <c r="H241" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Sunday</v>
       </c>
       <c r="I241" s="10">
-        <f t="shared" ref="I241:I242" si="64">WEEKDAY(F241,3)</f>
-        <v>6</v>
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="J241" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40958.464791666665</v>
       </c>
       <c r="K241" s="1" t="s">
@@ -12984,7 +13380,7 @@
     </row>
     <row r="242" spans="1:13">
       <c r="A242" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -12997,26 +13393,26 @@
         <v>1329592471</v>
       </c>
       <c r="E242" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40957.635081018518</v>
       </c>
       <c r="F242" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40957.635081018518</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>477</v>
       </c>
       <c r="H242" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Saturday</v>
       </c>
       <c r="I242" s="10">
-        <f t="shared" si="64"/>
-        <v>5</v>
+        <f t="shared" si="23"/>
+        <v>6</v>
       </c>
       <c r="J242" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40957.635081018518</v>
       </c>
       <c r="K242" s="1" t="s">
@@ -13031,7 +13427,7 @@
     </row>
     <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -13044,23 +13440,26 @@
         <v>1329524219</v>
       </c>
       <c r="E243" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40956.845127314817</v>
       </c>
       <c r="F243" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40956.845127314817</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>478</v>
       </c>
       <c r="H243" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I243" s="4"/>
+      <c r="I243" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J243" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40956.845127314817</v>
       </c>
       <c r="K243" s="1" t="s">
@@ -13075,7 +13474,7 @@
     </row>
     <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -13088,23 +13487,26 @@
         <v>1329495590</v>
       </c>
       <c r="E244" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40956.513773148152</v>
       </c>
       <c r="F244" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40956.513773148152</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>478</v>
       </c>
       <c r="H244" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Friday</v>
       </c>
-      <c r="I244" s="4"/>
+      <c r="I244" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
       <c r="J244" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40956.513773148152</v>
       </c>
       <c r="K244" s="1" t="s">
@@ -13119,7 +13521,7 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -13132,26 +13534,26 @@
         <v>1329421876</v>
       </c>
       <c r="E245" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40955.660601851851</v>
       </c>
       <c r="F245" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40955.660601851851</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>479</v>
       </c>
       <c r="H245" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I245" s="10">
-        <f t="shared" ref="I245:I246" si="65">WEEKDAY(F245,3)</f>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J245" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40955.660601851851</v>
       </c>
       <c r="K245" s="1" t="s">
@@ -13166,7 +13568,7 @@
     </row>
     <row r="246" spans="1:13">
       <c r="A246" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -13179,26 +13581,26 @@
         <v>1329421864</v>
       </c>
       <c r="E246" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40955.660462962966</v>
       </c>
       <c r="F246" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40955.660462962966</v>
       </c>
       <c r="G246" s="5" t="s">
         <v>479</v>
       </c>
       <c r="H246" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
       <c r="I246" s="10">
-        <f t="shared" si="65"/>
-        <v>3</v>
+        <f t="shared" si="23"/>
+        <v>4</v>
       </c>
       <c r="J246" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40955.660462962966</v>
       </c>
       <c r="K246" s="1" t="s">
@@ -13213,7 +13615,7 @@
     </row>
     <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -13226,23 +13628,26 @@
         <v>1329421834</v>
       </c>
       <c r="E247" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40955.660115740742</v>
       </c>
       <c r="F247" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40955.660115740742</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>479</v>
       </c>
       <c r="H247" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Thursday</v>
       </c>
-      <c r="I247" s="4"/>
+      <c r="I247" s="10">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
       <c r="J247" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40955.660115740742</v>
       </c>
       <c r="K247" s="1" t="s">
@@ -13257,7 +13662,7 @@
     </row>
     <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -13270,23 +13675,26 @@
         <v>1329359566</v>
       </c>
       <c r="E248" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40954.939421296294</v>
       </c>
       <c r="F248" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40954.939421296294</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>480</v>
       </c>
       <c r="H248" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I248" s="4"/>
+      <c r="I248" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J248" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40954.939421296294</v>
       </c>
       <c r="K248" s="1" t="s">
@@ -13301,7 +13709,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="A249" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>247</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -13314,26 +13722,26 @@
         <v>1329353959</v>
       </c>
       <c r="E249" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40954.874525462961</v>
       </c>
       <c r="F249" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40954.874525462961</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>480</v>
       </c>
       <c r="H249" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
       <c r="I249" s="10">
-        <f t="shared" ref="I249" si="66">WEEKDAY(F249,3)</f>
-        <v>2</v>
+        <f t="shared" si="23"/>
+        <v>3</v>
       </c>
       <c r="J249" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40954.874525462961</v>
       </c>
       <c r="K249" s="1" t="s">
@@ -13348,7 +13756,7 @@
     </row>
     <row r="250" spans="1:13" hidden="1">
       <c r="A250" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -13361,23 +13769,26 @@
         <v>1329320838</v>
       </c>
       <c r="E250" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40954.491180555553</v>
       </c>
       <c r="F250" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40954.491180555553</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>480</v>
       </c>
       <c r="H250" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I250" s="4"/>
+      <c r="I250" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J250" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40954.491180555553</v>
       </c>
       <c r="K250" s="1" t="s">
@@ -13392,7 +13803,7 @@
     </row>
     <row r="251" spans="1:13" hidden="1">
       <c r="A251" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="22"/>
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -13405,23 +13816,26 @@
         <v>1329320814</v>
       </c>
       <c r="E251" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="18"/>
         <v>40954.490902777776</v>
       </c>
       <c r="F251" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="19"/>
         <v>40954.490902777776</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>480</v>
       </c>
       <c r="H251" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="20"/>
         <v>Wednesday</v>
       </c>
-      <c r="I251" s="4"/>
+      <c r="I251" s="10">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
       <c r="J251" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="21"/>
         <v>40954.490902777776</v>
       </c>
       <c r="K251" s="1" t="s">
